--- a/1.xlsx
+++ b/1.xlsx
@@ -1,6 +1,212 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dean/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="29">
+  <si>
+    <t>填写人</t>
+  </si>
+  <si>
+    <t>填写人ID</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>工作时间</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>有效时间</t>
+  </si>
+  <si>
+    <t>项目时间</t>
+  </si>
+  <si>
+    <t>加班时间</t>
+  </si>
+  <si>
+    <t>刘迪</t>
+  </si>
+  <si>
+    <t>deanliu</t>
+  </si>
+  <si>
+    <t>09:00~18:00</t>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行股份有限公司-中国邮政储蓄银行邮政金融计算机系统硬件设备维护服务采购合同-16-2207</t>
+  </si>
+  <si>
+    <t>调休</t>
+  </si>
+  <si>
+    <t>待行政审核</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行股份有限公司-中国邮政储蓄银行邮政金融计算机系统硬件维保服务项目空白期第一次备件申请-17-2492</t>
+  </si>
+  <si>
+    <t>驻场</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>09:00~23:00</t>
+  </si>
+  <si>
+    <t>渠道A区EMS同步服务器1停机更换电池</t>
+  </si>
+  <si>
+    <t>待经理审批</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>09:00~19:00</t>
+  </si>
+  <si>
+    <t>F8渠道IBM-HMC迁移</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -45,9 +251,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -80,9 +286,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -260,6 +466,602 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43039.375</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43038.375</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43035.375</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43034.375</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43033.375</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43032.375</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43031.375</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43028.375</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43027.375</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43026.375</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43025.375</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43024.375</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43021.375</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43020.375</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43019.375</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43018.375</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43017.375</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
